--- a/source_data_old/Qual_5_data.xlsx
+++ b/source_data_old/Qual_5_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gender_data_portal\source_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\source_data_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C778FA-B1CF-42E0-9132-7AA2B6A4482F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DC2107-61EB-44AE-BE5C-9FBA50569DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2145,9 +2145,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N300" sqref="N300"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20826,15 +20826,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -21057,6 +21048,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -21066,14 +21066,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF25865C-4B7B-43E6-8BD0-484DAD548BEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87CEC647-6C23-41C1-AD0E-2484640C21F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21092,6 +21084,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF25865C-4B7B-43E6-8BD0-484DAD548BEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8323A25-8A55-456C-8D2B-5CE95ED6198F}">
   <ds:schemaRefs>
